--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_yyn_pf_sc_results_2_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_3_five_bus_meshed_grid_yyn_pf_sc_results_2_branch.xlsx
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.277811204449881</v>
+        <v>9.277811204449888</v>
       </c>
       <c r="F2">
         <v>148.3661769510659</v>
@@ -673,7 +673,7 @@
         <v>148.3661769510659</v>
       </c>
       <c r="H2">
-        <v>28.61627979050387</v>
+        <v>28.61627979050441</v>
       </c>
       <c r="I2">
         <v>-1E-07</v>
@@ -685,19 +685,19 @@
         <v>-1E-07</v>
       </c>
       <c r="L2">
-        <v>-77.77984578051355</v>
+        <v>-77.7798457805134</v>
       </c>
       <c r="M2">
-        <v>102.2201542057785</v>
+        <v>102.2201542057786</v>
       </c>
       <c r="N2">
-        <v>0.2917056037382954</v>
+        <v>0.2917056037382977</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-29.17137735525993</v>
+        <v>-29.1713773552603</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -729,16 +729,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.602001146415494E-19</v>
+        <v>1.601932357682392E-19</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>-1.251835892065076E-19</v>
+        <v>-1.25138101596076E-19</v>
       </c>
       <c r="L3">
-        <v>-77.77984578051355</v>
+        <v>-77.7798457805134</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -782,16 +782,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.601987739866474E-19</v>
+        <v>1.601932357682392E-19</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>-1.251837536982127E-19</v>
+        <v>-1.25138101596076E-19</v>
       </c>
       <c r="L4">
-        <v>-77.77984578051355</v>
+        <v>-77.7798457805134</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.277811204449881</v>
+        <v>9.277811204449888</v>
       </c>
       <c r="F2">
         <v>148.3661769510659</v>
@@ -7631,7 +7631,7 @@
         <v>148.3661769510659</v>
       </c>
       <c r="H2">
-        <v>28.61627979050387</v>
+        <v>28.61627979050441</v>
       </c>
       <c r="I2">
         <v>-1E-07</v>
@@ -7643,19 +7643,19 @@
         <v>-1E-07</v>
       </c>
       <c r="L2">
-        <v>-77.77984578051355</v>
+        <v>-77.7798457805134</v>
       </c>
       <c r="M2">
-        <v>102.2201542057785</v>
+        <v>102.2201542057786</v>
       </c>
       <c r="N2">
-        <v>0.2917056037382954</v>
+        <v>0.2917056037382977</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-29.17137735525993</v>
+        <v>-29.1713773552603</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -7687,16 +7687,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.602001146415494E-19</v>
+        <v>1.601932357682392E-19</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>-1.251835892065076E-19</v>
+        <v>-1.25138101596076E-19</v>
       </c>
       <c r="L3">
-        <v>-77.77984578051355</v>
+        <v>-77.7798457805134</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -7740,16 +7740,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.601987739866474E-19</v>
+        <v>1.601932357682392E-19</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>-1.251837536982127E-19</v>
+        <v>-1.25138101596076E-19</v>
       </c>
       <c r="L4">
-        <v>-77.77984578051355</v>
+        <v>-77.7798457805134</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -14580,7 +14580,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2.837059479583174</v>
+        <v>2.837059479583172</v>
       </c>
       <c r="F2">
         <v>45.36885473239909</v>
@@ -14589,34 +14589,34 @@
         <v>45.36885473239909</v>
       </c>
       <c r="H2">
-        <v>28.40499517047031</v>
+        <v>28.40499517047036</v>
       </c>
       <c r="I2">
-        <v>-25.72916224161299</v>
+        <v>-25.72916224161305</v>
       </c>
       <c r="J2">
-        <v>28.76520341755293</v>
+        <v>28.7652034175529</v>
       </c>
       <c r="K2">
-        <v>-25.72916225404876</v>
+        <v>-25.72916225404872</v>
       </c>
       <c r="L2">
-        <v>-54.52967390032435</v>
+        <v>-54.5296739003243</v>
       </c>
       <c r="M2">
-        <v>125.4703260859677</v>
+        <v>125.4703260859678</v>
       </c>
       <c r="N2">
-        <v>0.8910570420386134</v>
+        <v>0.8910570420386137</v>
       </c>
       <c r="O2">
-        <v>0.8020156209364412</v>
+        <v>0.8020156209364416</v>
       </c>
       <c r="P2">
-        <v>-9.16867920491114</v>
+        <v>-9.168679204911141</v>
       </c>
       <c r="Q2">
-        <v>-9.529673900180338</v>
+        <v>-9.529673900180347</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14645,31 +14645,31 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-2.49500099996315E-09</v>
+        <v>-2.494954152863048E-09</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.60662288124387E-09</v>
+        <v>1.606626573595445E-09</v>
       </c>
       <c r="L3">
-        <v>-54.52967390032435</v>
+        <v>-54.5296739003243</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8020156209375306</v>
+        <v>0.802015620937531</v>
       </c>
       <c r="O3">
-        <v>0.8020156209364412</v>
+        <v>0.8020156209364416</v>
       </c>
       <c r="P3">
-        <v>-9.529673899666486</v>
+        <v>-9.529673899666502</v>
       </c>
       <c r="Q3">
-        <v>-9.529673900180338</v>
+        <v>-9.529673900180347</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14698,31 +14698,31 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-2.49500099996315E-09</v>
+        <v>-2.494954152863048E-09</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.60662288124387E-09</v>
+        <v>1.606626573595445E-09</v>
       </c>
       <c r="L4">
-        <v>-54.52967390032435</v>
+        <v>-54.5296739003243</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8020156209375306</v>
+        <v>0.802015620937531</v>
       </c>
       <c r="O4">
-        <v>0.8020156209364412</v>
+        <v>0.8020156209364416</v>
       </c>
       <c r="P4">
-        <v>-9.529673899666486</v>
+        <v>-9.5296738996665</v>
       </c>
       <c r="Q4">
-        <v>-9.529673900180338</v>
+        <v>-9.529673900180347</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -14766,16 +14766,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8020156209375306</v>
+        <v>0.802015620937531</v>
       </c>
       <c r="O5">
-        <v>0.8020156209375306</v>
+        <v>0.802015620937531</v>
       </c>
       <c r="P5">
-        <v>-9.529673899666486</v>
+        <v>-9.529673899666502</v>
       </c>
       <c r="Q5">
-        <v>-9.529673899666486</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
   </sheetData>
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2.837059479583174</v>
+        <v>2.837059479583172</v>
       </c>
       <c r="F2">
         <v>45.36885473239909</v>
@@ -16871,34 +16871,34 @@
         <v>45.36885473239909</v>
       </c>
       <c r="H2">
-        <v>28.40499517047031</v>
+        <v>28.40499517047036</v>
       </c>
       <c r="I2">
-        <v>-25.72916224161299</v>
+        <v>-25.72916224161305</v>
       </c>
       <c r="J2">
-        <v>28.76520341755293</v>
+        <v>28.7652034175529</v>
       </c>
       <c r="K2">
-        <v>-25.72916225404876</v>
+        <v>-25.72916225404872</v>
       </c>
       <c r="L2">
-        <v>-54.52967390032435</v>
+        <v>-54.5296739003243</v>
       </c>
       <c r="M2">
-        <v>125.4703260859677</v>
+        <v>125.4703260859678</v>
       </c>
       <c r="N2">
-        <v>0.8910570420386134</v>
+        <v>0.8910570420386137</v>
       </c>
       <c r="O2">
-        <v>0.8020156209364412</v>
+        <v>0.8020156209364416</v>
       </c>
       <c r="P2">
-        <v>-9.16867920491114</v>
+        <v>-9.168679204911141</v>
       </c>
       <c r="Q2">
-        <v>-9.529673900180338</v>
+        <v>-9.529673900180347</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -16927,31 +16927,31 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-2.49500099996315E-09</v>
+        <v>-2.494954152863048E-09</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.60662288124387E-09</v>
+        <v>1.606626573595445E-09</v>
       </c>
       <c r="L3">
-        <v>-54.52967390032435</v>
+        <v>-54.5296739003243</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8020156209375306</v>
+        <v>0.802015620937531</v>
       </c>
       <c r="O3">
-        <v>0.8020156209364412</v>
+        <v>0.8020156209364416</v>
       </c>
       <c r="P3">
-        <v>-9.529673899666486</v>
+        <v>-9.529673899666502</v>
       </c>
       <c r="Q3">
-        <v>-9.529673900180338</v>
+        <v>-9.529673900180347</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -16980,31 +16980,31 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-2.49500099996315E-09</v>
+        <v>-2.494954152863048E-09</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.60662288124387E-09</v>
+        <v>1.606626573595445E-09</v>
       </c>
       <c r="L4">
-        <v>-54.52967390032435</v>
+        <v>-54.5296739003243</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8020156209375306</v>
+        <v>0.802015620937531</v>
       </c>
       <c r="O4">
-        <v>0.8020156209364412</v>
+        <v>0.8020156209364416</v>
       </c>
       <c r="P4">
-        <v>-9.529673899666486</v>
+        <v>-9.5296738996665</v>
       </c>
       <c r="Q4">
-        <v>-9.529673900180338</v>
+        <v>-9.529673900180347</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17048,16 +17048,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8020156209375306</v>
+        <v>0.802015620937531</v>
       </c>
       <c r="O5">
-        <v>0.8020156209375306</v>
+        <v>0.802015620937531</v>
       </c>
       <c r="P5">
-        <v>-9.529673899666486</v>
+        <v>-9.529673899666502</v>
       </c>
       <c r="Q5">
-        <v>-9.529673899666486</v>
+        <v>-9.5296738996665</v>
       </c>
     </row>
   </sheetData>
@@ -17131,16 +17131,16 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>3.601610081638495</v>
+        <v>3.601610081638494</v>
       </c>
       <c r="C2">
-        <v>3.601610081638495</v>
+        <v>3.601610081638494</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.838062054648191</v>
+        <v>6.838062054648185</v>
       </c>
       <c r="F2">
         <v>124.7634330090033</v>
@@ -17149,31 +17149,31 @@
         <v>124.7634330090033</v>
       </c>
       <c r="H2">
-        <v>38.85252268584011</v>
+        <v>38.85252268584021</v>
       </c>
       <c r="I2">
         <v>-1E-07</v>
       </c>
       <c r="J2">
-        <v>22.95972360762219</v>
+        <v>22.9597236076222</v>
       </c>
       <c r="K2">
         <v>-1E-07</v>
       </c>
       <c r="L2">
-        <v>-69.67231643316981</v>
+        <v>-69.6723164331699</v>
       </c>
       <c r="M2">
-        <v>110.3276835526118</v>
+        <v>110.3276835526119</v>
       </c>
       <c r="N2">
-        <v>0.3617201835011319</v>
+        <v>0.3617201835011328</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-39.091543225268</v>
+        <v>-39.09154322526796</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -17205,16 +17205,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.729275570332252E-20</v>
+        <v>1.728541288274148E-20</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6.32160087069124E-20</v>
+        <v>6.322592277637569E-20</v>
       </c>
       <c r="L3">
-        <v>-69.67231643316981</v>
+        <v>-69.6723164331699</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -17258,16 +17258,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.729284506548586E-20</v>
+        <v>1.728557624624361E-20</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.321633537907748E-20</v>
+        <v>6.322587811422668E-20</v>
       </c>
       <c r="L4">
-        <v>-69.67231643316981</v>
+        <v>-69.6723164331699</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -17409,16 +17409,16 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>3.601610081638495</v>
+        <v>3.601610081638494</v>
       </c>
       <c r="C2">
-        <v>3.601610081638495</v>
+        <v>3.601610081638494</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.838062054648191</v>
+        <v>6.838062054648185</v>
       </c>
       <c r="F2">
         <v>124.7634330090033</v>
@@ -17427,31 +17427,31 @@
         <v>124.7634330090033</v>
       </c>
       <c r="H2">
-        <v>38.85252268584011</v>
+        <v>38.85252268584021</v>
       </c>
       <c r="I2">
         <v>-1E-07</v>
       </c>
       <c r="J2">
-        <v>22.95972360762219</v>
+        <v>22.9597236076222</v>
       </c>
       <c r="K2">
         <v>-1E-07</v>
       </c>
       <c r="L2">
-        <v>-69.67231643316981</v>
+        <v>-69.6723164331699</v>
       </c>
       <c r="M2">
-        <v>110.3276835526118</v>
+        <v>110.3276835526119</v>
       </c>
       <c r="N2">
-        <v>0.3617201835011319</v>
+        <v>0.3617201835011328</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-39.091543225268</v>
+        <v>-39.09154322526796</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -17483,16 +17483,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.729275570332252E-20</v>
+        <v>1.728541288274148E-20</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6.32160087069124E-20</v>
+        <v>6.322592277637569E-20</v>
       </c>
       <c r="L3">
-        <v>-69.67231643316981</v>
+        <v>-69.6723164331699</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -17536,16 +17536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.729284506548586E-20</v>
+        <v>1.728557624624361E-20</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.321633537907748E-20</v>
+        <v>6.322587811422668E-20</v>
       </c>
       <c r="L4">
-        <v>-69.67231643316981</v>
+        <v>-69.6723164331699</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -17687,52 +17687,52 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1.146247392614546</v>
+        <v>1.146247392614549</v>
       </c>
       <c r="C2">
-        <v>1.146247392614546</v>
+        <v>1.146247392614549</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2.17627967020284</v>
+        <v>2.176279670202841</v>
       </c>
       <c r="F2">
-        <v>39.70717444103489</v>
+        <v>39.70717444103497</v>
       </c>
       <c r="G2">
-        <v>39.70717444103489</v>
+        <v>39.70717444103497</v>
       </c>
       <c r="H2">
-        <v>23.64358897071028</v>
+        <v>23.64358897071039</v>
       </c>
       <c r="I2">
-        <v>-19.70824627309609</v>
+        <v>-19.70824627309619</v>
       </c>
       <c r="J2">
-        <v>22.03381935746361</v>
+        <v>22.03381935746358</v>
       </c>
       <c r="K2">
-        <v>-19.7082462827831</v>
+        <v>-19.70824628278306</v>
       </c>
       <c r="L2">
-        <v>-52.63434507036738</v>
+        <v>-52.63434507036743</v>
       </c>
       <c r="M2">
-        <v>127.3656549154143</v>
+        <v>127.3656549154144</v>
       </c>
       <c r="N2">
-        <v>0.8139299031165276</v>
+        <v>0.8139299031165277</v>
       </c>
       <c r="O2">
-        <v>0.7019303077896072</v>
+        <v>0.701930307789607</v>
       </c>
       <c r="P2">
-        <v>-9.652735617430409</v>
+        <v>-9.652735617430436</v>
       </c>
       <c r="Q2">
-        <v>-7.634345070499226</v>
+        <v>-7.634345070499275</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -17761,31 +17761,31 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-2.233048037057537E-09</v>
+        <v>-2.233007165422347E-09</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.025769053304366E-09</v>
+        <v>1.025773639164057E-09</v>
       </c>
       <c r="L3">
-        <v>-52.63434507036738</v>
+        <v>-52.63434507036743</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7019303077953922</v>
+        <v>0.7019303077953919</v>
       </c>
       <c r="O3">
-        <v>0.7019303077896072</v>
+        <v>0.701930307789607</v>
       </c>
       <c r="P3">
-        <v>-7.634345069818468</v>
+        <v>-7.634345069818523</v>
       </c>
       <c r="Q3">
-        <v>-7.634345070499226</v>
+        <v>-7.634345070499275</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -17814,31 +17814,31 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-2.23305858626334E-09</v>
+        <v>-2.233007828016359E-09</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.025765435186496E-09</v>
+        <v>1.025768695858161E-09</v>
       </c>
       <c r="L4">
-        <v>-52.63434507036738</v>
+        <v>-52.63434507036743</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7019303077953922</v>
+        <v>0.7019303077953919</v>
       </c>
       <c r="O4">
-        <v>0.7019303077896072</v>
+        <v>0.701930307789607</v>
       </c>
       <c r="P4">
-        <v>-7.634345069818468</v>
+        <v>-7.634345069818527</v>
       </c>
       <c r="Q4">
-        <v>-7.634345070499226</v>
+        <v>-7.634345070499275</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -17882,16 +17882,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7019303077953922</v>
+        <v>0.7019303077953919</v>
       </c>
       <c r="O5">
-        <v>0.7019303077953922</v>
+        <v>0.7019303077953919</v>
       </c>
       <c r="P5">
-        <v>-7.634345069818468</v>
+        <v>-7.634345069818523</v>
       </c>
       <c r="Q5">
-        <v>-7.634345069818468</v>
+        <v>-7.634345069818527</v>
       </c>
     </row>
   </sheetData>
@@ -17965,52 +17965,52 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1.146247392614546</v>
+        <v>1.146247392614549</v>
       </c>
       <c r="C2">
-        <v>1.146247392614546</v>
+        <v>1.146247392614549</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2.17627967020284</v>
+        <v>2.176279670202841</v>
       </c>
       <c r="F2">
-        <v>39.70717444103489</v>
+        <v>39.70717444103497</v>
       </c>
       <c r="G2">
-        <v>39.70717444103489</v>
+        <v>39.70717444103497</v>
       </c>
       <c r="H2">
-        <v>23.64358897071028</v>
+        <v>23.64358897071039</v>
       </c>
       <c r="I2">
-        <v>-19.70824627309609</v>
+        <v>-19.70824627309619</v>
       </c>
       <c r="J2">
-        <v>22.03381935746361</v>
+        <v>22.03381935746358</v>
       </c>
       <c r="K2">
-        <v>-19.7082462827831</v>
+        <v>-19.70824628278306</v>
       </c>
       <c r="L2">
-        <v>-52.63434507036738</v>
+        <v>-52.63434507036743</v>
       </c>
       <c r="M2">
-        <v>127.3656549154143</v>
+        <v>127.3656549154144</v>
       </c>
       <c r="N2">
-        <v>0.8139299031165276</v>
+        <v>0.8139299031165277</v>
       </c>
       <c r="O2">
-        <v>0.7019303077896072</v>
+        <v>0.701930307789607</v>
       </c>
       <c r="P2">
-        <v>-9.652735617430409</v>
+        <v>-9.652735617430436</v>
       </c>
       <c r="Q2">
-        <v>-7.634345070499226</v>
+        <v>-7.634345070499275</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -18039,31 +18039,31 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-2.233048037057537E-09</v>
+        <v>-2.233007165422347E-09</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.025769053304366E-09</v>
+        <v>1.025773639164057E-09</v>
       </c>
       <c r="L3">
-        <v>-52.63434507036738</v>
+        <v>-52.63434507036743</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7019303077953922</v>
+        <v>0.7019303077953919</v>
       </c>
       <c r="O3">
-        <v>0.7019303077896072</v>
+        <v>0.701930307789607</v>
       </c>
       <c r="P3">
-        <v>-7.634345069818468</v>
+        <v>-7.634345069818523</v>
       </c>
       <c r="Q3">
-        <v>-7.634345070499226</v>
+        <v>-7.634345070499275</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -18092,31 +18092,31 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-2.23305858626334E-09</v>
+        <v>-2.233007828016359E-09</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.025765435186496E-09</v>
+        <v>1.025768695858161E-09</v>
       </c>
       <c r="L4">
-        <v>-52.63434507036738</v>
+        <v>-52.63434507036743</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7019303077953922</v>
+        <v>0.7019303077953919</v>
       </c>
       <c r="O4">
-        <v>0.7019303077896072</v>
+        <v>0.701930307789607</v>
       </c>
       <c r="P4">
-        <v>-7.634345069818468</v>
+        <v>-7.634345069818527</v>
       </c>
       <c r="Q4">
-        <v>-7.634345070499226</v>
+        <v>-7.634345070499275</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -18160,16 +18160,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7019303077953922</v>
+        <v>0.7019303077953919</v>
       </c>
       <c r="O5">
-        <v>0.7019303077953922</v>
+        <v>0.7019303077953919</v>
       </c>
       <c r="P5">
-        <v>-7.634345069818468</v>
+        <v>-7.634345069818523</v>
       </c>
       <c r="Q5">
-        <v>-7.634345069818468</v>
+        <v>-7.634345069818527</v>
       </c>
     </row>
   </sheetData>
